--- a/期末项目/ssq/DataProcessing_new/summary/Shanghai_T1DM_Summary0.xlsx
+++ b/期末项目/ssq/DataProcessing_new/summary/Shanghai_T1DM_Summary0.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\大三下\数据分析与数据挖掘\期末-血糖\data_processing\datasets_new\summary - 二进制\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D462F8-2379-4E07-BFEB-16403E3F9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15660" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,6 +128,60 @@
     <t>Hypoglycemia (yes/no)</t>
   </si>
   <si>
+    <t>CGM_mean</t>
+  </si>
+  <si>
+    <t>CGM_std</t>
+  </si>
+  <si>
+    <t>CGM_max</t>
+  </si>
+  <si>
+    <t>CGM_min</t>
+  </si>
+  <si>
+    <t>CBG_mean</t>
+  </si>
+  <si>
+    <t>CBG_std</t>
+  </si>
+  <si>
+    <t>CBG_max</t>
+  </si>
+  <si>
+    <t>CBG_min</t>
+  </si>
+  <si>
+    <t>Blood_Ketone_mean</t>
+  </si>
+  <si>
+    <t>Blood_Ketone_std</t>
+  </si>
+  <si>
+    <t>Blood_Ketone_max</t>
+  </si>
+  <si>
+    <t>Blood_Ketone_min</t>
+  </si>
+  <si>
+    <t>Carb_intake</t>
+  </si>
+  <si>
+    <t>CGM_rate_mean</t>
+  </si>
+  <si>
+    <t>CGM_rate_std</t>
+  </si>
+  <si>
+    <t>CGM_rate_max</t>
+  </si>
+  <si>
+    <t>CGM_rate_min</t>
+  </si>
+  <si>
+    <t>Hourly_CGM_rate_mean</t>
+  </si>
+  <si>
     <t>1001_0_20210730</t>
   </si>
   <si>
@@ -287,72 +348,24 @@
   </si>
   <si>
     <t>000000000000001100000010000000000000000000000000100000000000</t>
-  </si>
-  <si>
-    <t>CGM_mean</t>
-  </si>
-  <si>
-    <t>CGM_std</t>
-  </si>
-  <si>
-    <t>CGM_max</t>
-  </si>
-  <si>
-    <t>CGM_min</t>
-  </si>
-  <si>
-    <t>CBG_mean</t>
-  </si>
-  <si>
-    <t>CBG_std</t>
-  </si>
-  <si>
-    <t>CBG_max</t>
-  </si>
-  <si>
-    <t>CBG_min</t>
-  </si>
-  <si>
-    <t>Blood_Ketone_mean</t>
-  </si>
-  <si>
-    <t>Blood_Ketone_std</t>
-  </si>
-  <si>
-    <t>Blood_Ketone_max</t>
-  </si>
-  <si>
-    <t>Blood_Ketone_min</t>
-  </si>
-  <si>
-    <t>Carb_intake</t>
-  </si>
-  <si>
-    <t>CGM_rate_mean</t>
-  </si>
-  <si>
-    <t>CGM_rate_std</t>
-  </si>
-  <si>
-    <t>CGM_rate_max</t>
-  </si>
-  <si>
-    <t>CGM_rate_min</t>
-  </si>
-  <si>
-    <t>Hourly_CGM_rate_mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,29 +375,358 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -407,30 +749,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,21 +1343,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT20" sqref="AT20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="2" max="2" width="16.1826923076923" customWidth="1"/>
+    <col min="3" max="3" width="20.1826923076923" customWidth="1"/>
+    <col min="4" max="4" width="22.7596153846154" customWidth="1"/>
+    <col min="5" max="6" width="22.9134615384615" customWidth="1"/>
+    <col min="7" max="7" width="27.2403846153846" customWidth="1"/>
+    <col min="8" max="8" width="37.6538461538462" customWidth="1"/>
+    <col min="9" max="9" width="16.1826923076923" customWidth="1"/>
+    <col min="10" max="10" width="28.8461538461538" customWidth="1"/>
+    <col min="11" max="11" width="22.7596153846154" customWidth="1"/>
+    <col min="12" max="12" width="43.4230769230769" customWidth="1"/>
+    <col min="13" max="13" width="36.5288461538462" customWidth="1"/>
+    <col min="14" max="14" width="57.375" customWidth="1"/>
+    <col min="15" max="15" width="46.4711538461538" customWidth="1"/>
+    <col min="16" max="16" width="52.7211538461538" customWidth="1"/>
+    <col min="17" max="17" width="40.3846153846154" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,63 +1475,63 @@
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -901,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>26.666666666666671</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -916,22 +1561,22 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Q2">
         <v>352.8</v>
@@ -946,10 +1591,10 @@
         <v>0.05</v>
       </c>
       <c r="W2">
-        <v>115.31100000000001</v>
+        <v>115.311</v>
       </c>
       <c r="X2">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="Y2">
         <v>3.59</v>
@@ -961,10 +1606,10 @@
         <v>0.86</v>
       </c>
       <c r="AB2">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="AC2">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="AD2">
         <v>160</v>
@@ -979,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>196.82917933130699</v>
+        <v>196.829179331307</v>
       </c>
       <c r="AI2">
-        <v>50.141981665595097</v>
+        <v>50.1419816655951</v>
       </c>
       <c r="AJ2">
         <v>307.8</v>
@@ -991,10 +1636,10 @@
         <v>48.6</v>
       </c>
       <c r="AL2">
-        <v>253.3245283018868</v>
+        <v>253.324528301887</v>
       </c>
       <c r="AM2">
-        <v>63.309936349980703</v>
+        <v>63.3099363499807</v>
       </c>
       <c r="AN2">
         <v>379.8</v>
@@ -1006,24 +1651,24 @@
         <v>592.27</v>
       </c>
       <c r="AU2">
-        <v>1.351598173515982E-2</v>
+        <v>0.0135159817351598</v>
       </c>
       <c r="AV2">
-        <v>0.68381103205806559</v>
+        <v>0.683811032058066</v>
       </c>
       <c r="AW2">
         <v>3.36</v>
       </c>
       <c r="AX2">
-        <v>-1.919999999999999</v>
+        <v>-1.92</v>
       </c>
       <c r="AY2">
-        <v>1.672727272727273E-2</v>
+        <v>0.0167272727272727</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1038,7 +1683,7 @@
         <v>63</v>
       </c>
       <c r="F3">
-        <v>21.799307958477499</v>
+        <v>21.7993079584775</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1053,34 +1698,34 @@
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Q3">
         <v>181.8</v>
       </c>
       <c r="R3">
-        <v>258.83999999999997</v>
+        <v>258.84</v>
       </c>
       <c r="S3">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="T3">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="U3">
         <v>543.38</v>
@@ -1089,16 +1734,16 @@
         <v>754.71</v>
       </c>
       <c r="W3">
-        <v>69.405000000000001</v>
+        <v>69.405</v>
       </c>
       <c r="X3">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="Y3">
         <v>4.78</v>
       </c>
       <c r="Z3">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AA3">
         <v>0.93</v>
@@ -1122,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>136.01962025316459</v>
+        <v>136.019620253165</v>
       </c>
       <c r="AI3">
-        <v>59.896546459591029</v>
+        <v>59.896546459591</v>
       </c>
       <c r="AJ3">
         <v>394.2</v>
@@ -1134,10 +1779,10 @@
         <v>46.8</v>
       </c>
       <c r="AL3">
-        <v>183.19285714285721</v>
+        <v>183.192857142857</v>
       </c>
       <c r="AM3">
-        <v>74.917062231678102</v>
+        <v>74.9170622316781</v>
       </c>
       <c r="AN3">
         <v>417.6</v>
@@ -1146,10 +1791,10 @@
         <v>57.6</v>
       </c>
       <c r="AP3">
-        <v>0.64117647058823524</v>
+        <v>0.641176470588235</v>
       </c>
       <c r="AQ3">
-        <v>1.016156252459121</v>
+        <v>1.01615625245912</v>
       </c>
       <c r="AR3">
         <v>4.3</v>
@@ -1158,27 +1803,27 @@
         <v>0.1</v>
       </c>
       <c r="AT3">
-        <v>1060.1199999999999</v>
+        <v>1060.12</v>
       </c>
       <c r="AU3">
-        <v>-5.828933474128827E-3</v>
+        <v>-0.00582893347412883</v>
       </c>
       <c r="AV3">
-        <v>0.50343075034028739</v>
+        <v>0.503430750340287</v>
       </c>
       <c r="AW3">
-        <v>3.7199999999999989</v>
+        <v>3.72</v>
       </c>
       <c r="AX3">
-        <v>-1.679999999999999</v>
+        <v>-1.68</v>
       </c>
       <c r="AY3">
-        <v>-7.0588235294117684E-3</v>
+        <v>-0.00705882352941177</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1193,7 +1838,7 @@
         <v>67</v>
       </c>
       <c r="F4">
-        <v>23.183391003460208</v>
+        <v>23.1833910034602</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -1208,34 +1853,34 @@
         <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Q4">
         <v>181.8</v>
       </c>
       <c r="R4">
-        <v>258.83999999999997</v>
+        <v>258.84</v>
       </c>
       <c r="S4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="T4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="U4">
         <v>543.38</v>
@@ -1244,16 +1889,16 @@
         <v>754.71</v>
       </c>
       <c r="W4">
-        <v>69.405000000000001</v>
+        <v>69.405</v>
       </c>
       <c r="X4">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="Y4">
         <v>4.78</v>
       </c>
       <c r="Z4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AA4">
         <v>0.93</v>
@@ -1262,7 +1907,7 @@
         <v>3.28</v>
       </c>
       <c r="AC4">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="AD4">
         <v>104</v>
@@ -1277,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>115.7710610932476</v>
+        <v>115.771061093248</v>
       </c>
       <c r="AI4">
         <v>54.8634854632623</v>
@@ -1289,13 +1934,13 @@
         <v>39.6</v>
       </c>
       <c r="AL4">
-        <v>164.3727272727273</v>
+        <v>164.372727272727</v>
       </c>
       <c r="AM4">
-        <v>64.681552584606735</v>
+        <v>64.6815525846067</v>
       </c>
       <c r="AN4">
-        <v>309.60000000000002</v>
+        <v>309.6</v>
       </c>
       <c r="AO4">
         <v>61.2</v>
@@ -1304,24 +1949,24 @@
         <v>1344.83</v>
       </c>
       <c r="AU4">
-        <v>-1.776824034334764E-2</v>
+        <v>-0.0177682403433476</v>
       </c>
       <c r="AV4">
-        <v>0.50731465684773924</v>
+        <v>0.507314656847739</v>
       </c>
       <c r="AW4">
-        <v>2.7599999999999989</v>
+        <v>2.76</v>
       </c>
       <c r="AX4">
-        <v>-1.5599999999999981</v>
+        <v>-1.56</v>
       </c>
       <c r="AY4">
-        <v>-1.67948717948718E-2</v>
+        <v>-0.0167948717948718</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1336,7 +1981,7 @@
         <v>65</v>
       </c>
       <c r="F5">
-        <v>22.491349480968861</v>
+        <v>22.4913494809689</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -1351,31 +1996,31 @@
         <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Q5">
         <v>237.6</v>
       </c>
       <c r="S5">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="T5">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="U5">
         <v>78.37</v>
@@ -1384,7 +2029,7 @@
         <v>74.39</v>
       </c>
       <c r="W5">
-        <v>72.684000000000012</v>
+        <v>72.684</v>
       </c>
       <c r="X5">
         <v>25.1</v>
@@ -1417,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>119.0823529411765</v>
+        <v>119.082352941176</v>
       </c>
       <c r="AI5">
-        <v>39.667880294167297</v>
+        <v>39.6678802941673</v>
       </c>
       <c r="AJ5">
         <v>219.6</v>
@@ -1429,10 +2074,10 @@
         <v>39.6</v>
       </c>
       <c r="AL5">
-        <v>171.27692307692311</v>
+        <v>171.276923076923</v>
       </c>
       <c r="AM5">
-        <v>56.927127506610113</v>
+        <v>56.9271275066101</v>
       </c>
       <c r="AN5">
         <v>268.2</v>
@@ -1444,10 +2089,10 @@
         <v>715.31</v>
       </c>
       <c r="AU5">
-        <v>1.0112359550561801E-2</v>
+        <v>0.0101123595505618</v>
       </c>
       <c r="AV5">
-        <v>0.48702487285187868</v>
+        <v>0.487024872851879</v>
       </c>
       <c r="AW5">
         <v>2.04</v>
@@ -1456,12 +2101,12 @@
         <v>-1.32</v>
       </c>
       <c r="AY5">
-        <v>1.288888888888888E-2</v>
+        <v>0.0128888888888889</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1476,7 +2121,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>16.62049861495845</v>
+        <v>16.6204986149584</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1488,25 +2133,25 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8.3333333333333329E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Q6">
         <v>120.6</v>
@@ -1530,7 +2175,7 @@
         <v>5.61</v>
       </c>
       <c r="Z6">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AA6">
         <v>1.08</v>
@@ -1554,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>151.0238984316654</v>
+        <v>151.023898431665</v>
       </c>
       <c r="AI6">
-        <v>63.61556128578659</v>
+        <v>63.6155612857866</v>
       </c>
       <c r="AJ6">
         <v>424.8</v>
@@ -1569,7 +2214,7 @@
         <v>175.392</v>
       </c>
       <c r="AM6">
-        <v>68.260776971312538</v>
+        <v>68.2607769713125</v>
       </c>
       <c r="AN6">
         <v>412.2</v>
@@ -1581,24 +2226,24 @@
         <v>1477.27</v>
       </c>
       <c r="AU6">
-        <v>-7.7130044843049354E-3</v>
+        <v>-0.00771300448430494</v>
       </c>
       <c r="AV6">
-        <v>0.75855253344366891</v>
+        <v>0.758552533443669</v>
       </c>
       <c r="AW6">
         <v>3.36</v>
       </c>
       <c r="AX6">
-        <v>-3.239999999999998</v>
+        <v>-3.24</v>
       </c>
       <c r="AY6">
-        <v>-7.6785714285714356E-3</v>
+        <v>-0.00767857142857144</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1613,7 +2258,7 @@
         <v>47</v>
       </c>
       <c r="F7">
-        <v>19.562955254942761</v>
+        <v>19.5629552549428</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1628,34 +2273,34 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="Q7">
         <v>113.4</v>
       </c>
       <c r="R7">
-        <v>305.10000000000002</v>
+        <v>305.1</v>
       </c>
       <c r="S7">
         <v>0.09</v>
       </c>
       <c r="T7">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="W7">
         <v>125.148</v>
@@ -1691,22 +2336,22 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>183.16226826608511</v>
+        <v>183.162268266085</v>
       </c>
       <c r="AI7">
-        <v>52.808562708011983</v>
+        <v>52.808562708012</v>
       </c>
       <c r="AJ7">
-        <v>327.60000000000002</v>
+        <v>327.6</v>
       </c>
       <c r="AK7">
-        <v>68.400000000000006</v>
+        <v>68.4</v>
       </c>
       <c r="AL7">
-        <v>195.82388059701489</v>
+        <v>195.823880597015</v>
       </c>
       <c r="AM7">
-        <v>54.216418427788483</v>
+        <v>54.2164184277885</v>
       </c>
       <c r="AN7">
         <v>316.8</v>
@@ -1730,10 +2375,10 @@
         <v>632.12</v>
       </c>
       <c r="AU7">
-        <v>-1.231441048034934E-2</v>
+        <v>-0.0123144104803493</v>
       </c>
       <c r="AV7">
-        <v>0.77216854062851681</v>
+        <v>0.772168540628517</v>
       </c>
       <c r="AW7">
         <v>4.92</v>
@@ -1742,12 +2387,12 @@
         <v>-3.36</v>
       </c>
       <c r="AY7">
-        <v>-1.173913043478261E-2</v>
+        <v>-0.0117391304347826</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1762,7 +2407,7 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>17.301038062283741</v>
+        <v>17.3010380622837</v>
       </c>
       <c r="G8">
         <v>22.5</v>
@@ -1777,28 +2422,28 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="Q8">
         <v>84.6</v>
       </c>
       <c r="R8">
-        <v>370.43999999999988</v>
+        <v>370.44</v>
       </c>
       <c r="S8">
         <v>0.02</v>
@@ -1813,7 +2458,7 @@
         <v>550.4</v>
       </c>
       <c r="W8">
-        <v>68.311999999999998</v>
+        <v>68.312</v>
       </c>
       <c r="X8">
         <v>25.7</v>
@@ -1831,7 +2476,7 @@
         <v>2.12</v>
       </c>
       <c r="AC8">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="AD8">
         <v>98</v>
@@ -1846,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>177.46624203821651</v>
+        <v>177.466242038217</v>
       </c>
       <c r="AI8">
-        <v>84.807900146277944</v>
+        <v>84.8079001462779</v>
       </c>
       <c r="AJ8">
         <v>406.8</v>
@@ -1858,10 +2503,10 @@
         <v>39.6</v>
       </c>
       <c r="AL8">
-        <v>193.87636363636369</v>
+        <v>193.876363636364</v>
       </c>
       <c r="AM8">
-        <v>87.957948630426401</v>
+        <v>87.9579486304264</v>
       </c>
       <c r="AN8">
         <v>405</v>
@@ -1870,10 +2515,10 @@
         <v>30.6</v>
       </c>
       <c r="AP8">
-        <v>0.21666666666666659</v>
+        <v>0.216666666666667</v>
       </c>
       <c r="AQ8">
-        <v>0.16020819787597221</v>
+        <v>0.160208197875972</v>
       </c>
       <c r="AR8">
         <v>0.5</v>
@@ -1885,10 +2530,10 @@
         <v>1050.82</v>
       </c>
       <c r="AU8">
-        <v>-9.2749003984063712E-3</v>
+        <v>-0.00927490039840637</v>
       </c>
       <c r="AV8">
-        <v>0.89113981819110744</v>
+        <v>0.891139818191107</v>
       </c>
       <c r="AW8">
         <v>4.2</v>
@@ -1897,12 +2542,12 @@
         <v>-3.24</v>
       </c>
       <c r="AY8">
-        <v>-7.929936305732483E-3</v>
+        <v>-0.00792993630573248</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1917,7 +2562,7 @@
         <v>53.2</v>
       </c>
       <c r="F9">
-        <v>20.52389954091278</v>
+        <v>20.5238995409128</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1932,22 +2577,22 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q9">
         <v>80.28</v>
@@ -1956,10 +2601,10 @@
         <v>193.68</v>
       </c>
       <c r="S9">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="T9">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="U9">
         <v>30.18</v>
@@ -1968,13 +2613,13 @@
         <v>231.6</v>
       </c>
       <c r="W9">
-        <v>68.311999999999998</v>
+        <v>68.312</v>
       </c>
       <c r="X9">
         <v>29.2</v>
       </c>
       <c r="Y9">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="Z9">
         <v>0.68</v>
@@ -2001,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>156.4383495145631</v>
+        <v>156.438349514563</v>
       </c>
       <c r="AI9">
-        <v>65.694854291265585</v>
+        <v>65.6948542912656</v>
       </c>
       <c r="AJ9">
         <v>340.2</v>
@@ -2016,36 +2661,36 @@
         <v>137.88</v>
       </c>
       <c r="AM9">
-        <v>55.721557767169429</v>
+        <v>55.7215577671694</v>
       </c>
       <c r="AN9">
         <v>232.2</v>
       </c>
       <c r="AO9">
-        <v>84.600000000000009</v>
+        <v>84.6</v>
       </c>
       <c r="AT9">
         <v>1851.05</v>
       </c>
       <c r="AU9">
-        <v>2.137651821862352E-3</v>
+        <v>0.00213765182186235</v>
       </c>
       <c r="AV9">
-        <v>0.65298861410074449</v>
+        <v>0.652988614100744</v>
       </c>
       <c r="AW9">
-        <v>2.2799999999999989</v>
+        <v>2.28</v>
       </c>
       <c r="AX9">
         <v>-3.6</v>
       </c>
       <c r="AY9">
-        <v>4.0645161290322508E-3</v>
+        <v>0.00406451612903225</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2075,22 +2720,22 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q10">
         <v>258.3</v>
@@ -2099,7 +2744,7 @@
         <v>245.52</v>
       </c>
       <c r="S10">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="T10">
         <v>0.01</v>
@@ -2144,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>203.49141150112021</v>
+        <v>203.49141150112</v>
       </c>
       <c r="AI10">
-        <v>85.042880642686228</v>
+        <v>85.0428806426862</v>
       </c>
       <c r="AJ10">
         <v>448.2</v>
@@ -2156,39 +2801,39 @@
         <v>39.6</v>
       </c>
       <c r="AL10">
-        <v>186.70909090909089</v>
+        <v>186.709090909091</v>
       </c>
       <c r="AM10">
-        <v>71.294071810527669</v>
+        <v>71.2940718105277</v>
       </c>
       <c r="AN10">
         <v>322.2</v>
       </c>
       <c r="AO10">
-        <v>66.600000000000009</v>
+        <v>66.6</v>
       </c>
       <c r="AT10">
-        <v>2158.4899999999998</v>
+        <v>2158.49</v>
       </c>
       <c r="AU10">
-        <v>-3.1390134529147989E-3</v>
+        <v>-0.0031390134529148</v>
       </c>
       <c r="AV10">
-        <v>0.87380477878710849</v>
+        <v>0.873804778787108</v>
       </c>
       <c r="AW10">
         <v>3.24</v>
       </c>
       <c r="AX10">
-        <v>-4.6800000000000006</v>
+        <v>-4.68</v>
       </c>
       <c r="AY10">
-        <v>-3.1343283582089729E-3</v>
+        <v>-0.00313432835820897</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2218,34 +2863,34 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q11">
         <v>164.7</v>
       </c>
       <c r="R11">
-        <v>72.540000000000006</v>
+        <v>72.54</v>
       </c>
       <c r="S11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="T11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="U11">
         <v>21.66</v>
@@ -2254,13 +2899,13 @@
         <v>540.6</v>
       </c>
       <c r="W11">
-        <v>60.661000000000001</v>
+        <v>60.661</v>
       </c>
       <c r="X11">
         <v>26.6</v>
       </c>
       <c r="Y11">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="Z11">
         <v>0.54</v>
@@ -2287,10 +2932,10 @@
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>200.86096916299559</v>
+        <v>200.860969162996</v>
       </c>
       <c r="AI11">
-        <v>71.637034977482216</v>
+        <v>71.6370349774822</v>
       </c>
       <c r="AJ11">
         <v>475.2</v>
@@ -2299,10 +2944,10 @@
         <v>48.6</v>
       </c>
       <c r="AL11">
-        <v>166.45909090909089</v>
+        <v>166.459090909091</v>
       </c>
       <c r="AM11">
-        <v>71.17214740750903</v>
+        <v>71.172147407509</v>
       </c>
       <c r="AN11">
         <v>396</v>
@@ -2314,24 +2959,24 @@
         <v>1939.43</v>
       </c>
       <c r="AU11">
-        <v>-8.4656084656084258E-4</v>
+        <v>-0.000846560846560843</v>
       </c>
       <c r="AV11">
-        <v>0.78849762027354331</v>
+        <v>0.788497620273543</v>
       </c>
       <c r="AW11">
         <v>2.64</v>
       </c>
       <c r="AX11">
-        <v>-4.3199999999999994</v>
+        <v>-4.32</v>
       </c>
       <c r="AY11">
-        <v>-9.1549295774647269E-4</v>
+        <v>-0.000915492957746473</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2346,7 +2991,7 @@
         <v>65.5</v>
       </c>
       <c r="F12">
-        <v>20.67289483651054</v>
+        <v>20.6728948365105</v>
       </c>
       <c r="G12">
         <v>6.7</v>
@@ -2361,31 +3006,31 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
         <v>66</v>
       </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q12">
-        <v>266.39999999999998</v>
+        <v>266.4</v>
       </c>
       <c r="R12">
         <v>297</v>
       </c>
       <c r="S12">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T12">
         <v>0.27</v>
@@ -2397,7 +3042,7 @@
         <v>28.74</v>
       </c>
       <c r="W12">
-        <v>54.102999999999987</v>
+        <v>54.103</v>
       </c>
       <c r="X12">
         <v>18.3</v>
@@ -2415,7 +3060,7 @@
         <v>2.7</v>
       </c>
       <c r="AC12">
-        <v>64.400000000000006</v>
+        <v>64.4</v>
       </c>
       <c r="AD12">
         <v>127</v>
@@ -2430,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>102.8019446522064</v>
+        <v>102.801944652206</v>
       </c>
       <c r="AI12">
-        <v>41.083319339508392</v>
+        <v>41.0833193395084</v>
       </c>
       <c r="AJ12">
         <v>262.8</v>
@@ -2445,24 +3090,24 @@
         <v>2015.67</v>
       </c>
       <c r="AU12">
-        <v>-2.6047904191616772E-3</v>
+        <v>-0.00260479041916168</v>
       </c>
       <c r="AV12">
-        <v>0.63527217637357059</v>
+        <v>0.635272176373571</v>
       </c>
       <c r="AW12">
-        <v>3.600000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AX12">
         <v>-2.52</v>
       </c>
       <c r="AY12">
-        <v>-2.6047904191616789E-3</v>
+        <v>-0.00260479041916168</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2477,7 +3122,7 @@
         <v>64</v>
       </c>
       <c r="F13">
-        <v>24.69040546275221</v>
+        <v>24.6904054627522</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2492,22 +3137,22 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Q13">
         <v>250.2</v>
@@ -2516,16 +3161,16 @@
         <v>372.96</v>
       </c>
       <c r="S13">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="T13">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="W13">
-        <v>62.847000000000008</v>
+        <v>62.847</v>
       </c>
       <c r="X13">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="Y13">
         <v>4.55</v>
@@ -2555,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>185.22375979112269</v>
+        <v>185.223759791123</v>
       </c>
       <c r="AI13">
-        <v>68.429642389904373</v>
+        <v>68.4296423899044</v>
       </c>
       <c r="AJ13">
         <v>415.8</v>
@@ -2567,22 +3212,22 @@
         <v>50.4</v>
       </c>
       <c r="AL13">
-        <v>210.1118644067796</v>
+        <v>210.11186440678</v>
       </c>
       <c r="AM13">
-        <v>70.95968035524983</v>
+        <v>70.9596803552498</v>
       </c>
       <c r="AN13">
         <v>412.2</v>
       </c>
       <c r="AO13">
-        <v>84.600000000000009</v>
+        <v>84.6</v>
       </c>
       <c r="AP13">
-        <v>0.79999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>0.96263527187957676</v>
+        <v>0.962635271879577</v>
       </c>
       <c r="AR13">
         <v>2.9</v>
@@ -2594,24 +3239,24 @@
         <v>1204.18</v>
       </c>
       <c r="AU13">
-        <v>-3.137254901960779E-3</v>
+        <v>-0.00313725490196078</v>
       </c>
       <c r="AV13">
         <v>0.652481841223158</v>
       </c>
       <c r="AW13">
-        <v>2.1599999999999979</v>
+        <v>2.16</v>
       </c>
       <c r="AX13">
         <v>-1.8</v>
       </c>
       <c r="AY13">
-        <v>-1.71875E-3</v>
+        <v>-0.00171875</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2626,7 +3271,7 @@
         <v>62</v>
       </c>
       <c r="F14">
-        <v>22.77318640955005</v>
+        <v>22.77318640955</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2641,22 +3286,22 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Q14">
         <v>117</v>
@@ -2674,7 +3319,7 @@
         <v>311.76</v>
       </c>
       <c r="W14">
-        <v>78.149000000000001</v>
+        <v>78.149</v>
       </c>
       <c r="X14">
         <v>24.9</v>
@@ -2707,22 +3352,22 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>174.8008810572687</v>
+        <v>174.800881057269</v>
       </c>
       <c r="AI14">
-        <v>54.752152247132578</v>
+        <v>54.7521522471326</v>
       </c>
       <c r="AJ14">
         <v>347.4</v>
       </c>
       <c r="AK14">
-        <v>68.400000000000006</v>
+        <v>68.4</v>
       </c>
       <c r="AL14">
-        <v>239.72727272727269</v>
+        <v>239.727272727273</v>
       </c>
       <c r="AM14">
-        <v>67.967131093572789</v>
+        <v>67.9671310935728</v>
       </c>
       <c r="AN14">
         <v>466.2</v>
@@ -2734,24 +3379,24 @@
         <v>206.04</v>
       </c>
       <c r="AU14">
-        <v>-7.4117647058823581E-3</v>
+        <v>-0.00741176470588236</v>
       </c>
       <c r="AV14">
-        <v>0.71742405006249566</v>
+        <v>0.717424050062496</v>
       </c>
       <c r="AW14">
-        <v>3.8400000000000021</v>
+        <v>3.84</v>
       </c>
       <c r="AX14">
-        <v>-2.0400000000000009</v>
+        <v>-2.04</v>
       </c>
       <c r="AY14">
-        <v>-7.2514619883040816E-3</v>
+        <v>-0.00725146198830408</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2781,22 +3426,22 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="Q15">
         <v>117</v>
@@ -2805,7 +3450,7 @@
         <v>329.76</v>
       </c>
       <c r="S15">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="T15">
         <v>0.16</v>
@@ -2820,7 +3465,7 @@
         <v>165.589</v>
       </c>
       <c r="X15">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="Y15">
         <v>5.15</v>
@@ -2850,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>190.48627450980391</v>
+        <v>190.486274509804</v>
       </c>
       <c r="AI15">
-        <v>63.179523060855637</v>
+        <v>63.1795230608556</v>
       </c>
       <c r="AJ15">
         <v>378</v>
@@ -2862,10 +3507,10 @@
         <v>59.4</v>
       </c>
       <c r="AL15">
-        <v>206.91818181818181</v>
+        <v>206.918181818182</v>
       </c>
       <c r="AM15">
-        <v>65.201396655854893</v>
+        <v>65.2013966558549</v>
       </c>
       <c r="AN15">
         <v>383.4</v>
@@ -2874,27 +3519,27 @@
         <v>79.2</v>
       </c>
       <c r="AT15">
-        <v>671.58999999999992</v>
+        <v>671.59</v>
       </c>
       <c r="AU15">
-        <v>-1.6619411123227922E-2</v>
+        <v>-0.0166194111232279</v>
       </c>
       <c r="AV15">
-        <v>0.69898828960966386</v>
+        <v>0.698988289609664</v>
       </c>
       <c r="AW15">
         <v>3.24</v>
       </c>
       <c r="AX15">
-        <v>-1.680000000000001</v>
+        <v>-1.68</v>
       </c>
       <c r="AY15">
-        <v>-1.22608695652174E-2</v>
+        <v>-0.0122608695652174</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2909,7 +3554,7 @@
         <v>74</v>
       </c>
       <c r="F16">
-        <v>27.513384889946469</v>
+        <v>27.5133848899465</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2924,22 +3569,22 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="Q16">
         <v>342</v>
@@ -2948,10 +3593,10 @@
         <v>283.86</v>
       </c>
       <c r="S16">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="T16">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="U16">
         <v>7.28</v>
@@ -2960,13 +3605,13 @@
         <v>282.11</v>
       </c>
       <c r="W16">
-        <v>54.102999999999987</v>
+        <v>54.103</v>
       </c>
       <c r="X16">
         <v>21</v>
       </c>
       <c r="Y16">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="Z16">
         <v>1.03</v>
@@ -2993,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>146.66641791044779</v>
+        <v>146.666417910448</v>
       </c>
       <c r="AI16">
-        <v>72.552758187422441</v>
+        <v>72.5527581874224</v>
       </c>
       <c r="AJ16">
         <v>365.4</v>
@@ -3005,10 +3650,10 @@
         <v>39.6</v>
       </c>
       <c r="AL16">
-        <v>185.88749999999999</v>
+        <v>185.8875</v>
       </c>
       <c r="AM16">
-        <v>87.522290473840059</v>
+        <v>87.5222904738401</v>
       </c>
       <c r="AN16">
         <v>370.8</v>
@@ -3020,10 +3665,10 @@
         <v>0.4</v>
       </c>
       <c r="AQ16">
-        <v>0.42426406871192862</v>
+        <v>0.424264068711929</v>
       </c>
       <c r="AR16">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AS16">
         <v>0.1</v>
@@ -3032,24 +3677,24 @@
         <v>904.28</v>
       </c>
       <c r="AU16">
-        <v>3.813084112149528E-3</v>
+        <v>0.00381308411214953</v>
       </c>
       <c r="AV16">
-        <v>0.82383253146704027</v>
+        <v>0.82383253146704</v>
       </c>
       <c r="AW16">
-        <v>3.2400000000000011</v>
+        <v>3.24</v>
       </c>
       <c r="AX16">
-        <v>-2.5199999999999991</v>
+        <v>-2.52</v>
       </c>
       <c r="AY16">
-        <v>6.6666666666666628E-3</v>
+        <v>0.00666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3064,7 +3709,7 @@
         <v>55</v>
       </c>
       <c r="F17">
-        <v>21.218317194552679</v>
+        <v>21.2183171945527</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3076,31 +3721,31 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>3.8356164383561653E-2</v>
+        <v>0.0383561643835617</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="Q17">
         <v>223.2</v>
       </c>
       <c r="Y17">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="Z17">
         <v>0.74</v>
@@ -3118,7 +3763,7 @@
         <v>177.811501120239</v>
       </c>
       <c r="AI17">
-        <v>67.820496959508048</v>
+        <v>67.820496959508</v>
       </c>
       <c r="AJ17">
         <v>388.8</v>
@@ -3130,23 +3775,23 @@
         <v>1121.42</v>
       </c>
       <c r="AU17">
-        <v>4.035874439461881E-3</v>
+        <v>0.00403587443946188</v>
       </c>
       <c r="AV17">
-        <v>0.92244115588574138</v>
+        <v>0.922441155885741</v>
       </c>
       <c r="AW17">
-        <v>5.6400000000000006</v>
+        <v>5.64</v>
       </c>
       <c r="AX17">
-        <v>-4.3199999999999994</v>
+        <v>-4.32</v>
       </c>
       <c r="AY17">
-        <v>3.8507462686567162E-3</v>
+        <v>0.00385074626865672</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>